--- a/artfynd/A 58567-2025 artfynd.xlsx
+++ b/artfynd/A 58567-2025 artfynd.xlsx
@@ -2512,7 +2512,7 @@
         <v>130616003</v>
       </c>
       <c r="B19" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>130868238</v>
       </c>
       <c r="B20" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>130348534</v>
       </c>
       <c r="B21" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>131036113</v>
       </c>
       <c r="B22" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
